--- a/data/Punteggi.xlsx
+++ b/data/Punteggi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonellodebari/Library/Mobile Documents/com~apple~CloudDocs/COPPA_DELIRI/DELIRIO PADEL/ANNO 24:25/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonellodebari/Desktop/delirio/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359163DC-85E6-7E4F-AE67-B8348D6F9D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B202AB2-A9DB-7048-85E7-548F63440B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="760" windowWidth="25780" windowHeight="17800" firstSheet="10" activeTab="23" xr2:uid="{7DE37A2F-3F0B-164C-851F-574225589533}"/>
+    <workbookView xWindow="4460" yWindow="680" windowWidth="25780" windowHeight="17560" activeTab="1" xr2:uid="{7DE37A2F-3F0B-164C-851F-574225589533}"/>
   </bookViews>
   <sheets>
     <sheet name="Punteggi" sheetId="3" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="94">
   <si>
     <t>Data</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>Aldo</t>
+  </si>
+  <si>
+    <t>Mino Cattedra</t>
+  </si>
+  <si>
+    <t>Delirio</t>
   </si>
 </sst>
 </file>
@@ -5627,8 +5633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D55208-B053-7C41-8649-C244DBD3B2F1}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5695,7 +5701,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -5827,6 +5833,9 @@
       </c>
       <c r="B24" s="1">
         <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7935,7 +7944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B6C8FD-8D18-D04D-9573-06EEAEC58B62}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>

--- a/data/Punteggi.xlsx
+++ b/data/Punteggi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonellodebari/Desktop/delirio/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B202AB2-A9DB-7048-85E7-548F63440B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A17A0-5C96-9442-81BC-2FAEFC718D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4460" yWindow="680" windowWidth="25780" windowHeight="17560" activeTab="1" xr2:uid="{7DE37A2F-3F0B-164C-851F-574225589533}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="95">
   <si>
     <t>Data</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Delirio</t>
+  </si>
+  <si>
+    <t>Nello</t>
   </si>
 </sst>
 </file>
@@ -5634,7 +5637,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5643,7 +5646,7 @@
     <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -5675,15 +5678,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5691,7 +5697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -5699,7 +5705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -5707,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5715,7 +5721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5723,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -5739,7 +5745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5747,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -5763,7 +5769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
